--- a/WOWEXCEL.xlsx
+++ b/WOWEXCEL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krishan/Desktop/desktop/Github_repository/Security-Engineering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krishnaa\Documents\GitHub\Security-Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAC249E2-6F1D-CD4D-9BD6-8F69E993601B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39969A12-2A4C-4B11-B5BD-3F3EF0ECFA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760" xr2:uid="{117BFB21-5A0B-B24A-8094-473BD754A169}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{117BFB21-5A0B-B24A-8094-473BD754A169}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,9 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Test of excel waow</t>
+  </si>
+  <si>
+    <t>hello sir, I am anil Hari krishna</t>
   </si>
 </sst>
 </file>
@@ -390,17 +390,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB2A737-783D-5D4D-A021-DF21AEF544A2}">
-  <dimension ref="D2"/>
+  <dimension ref="D2:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
